--- a/Happy.xlsx
+++ b/Happy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -155,6 +155,27 @@
   </si>
   <si>
     <t>13:00</t>
+  </si>
+  <si>
+    <t>Алиса</t>
+  </si>
+  <si>
+    <t>Сергеева</t>
+  </si>
+  <si>
+    <t>коллагенарий, спа-капсула</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>Klavdia</t>
+  </si>
+  <si>
+    <t>Davydova</t>
+  </si>
+  <si>
+    <t>массаж</t>
   </si>
 </sst>
 </file>
@@ -486,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,6 +736,46 @@
         <v>46</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>5000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
